--- a/prodinfo/test/debug/source_debug.xlsx
+++ b/prodinfo/test/debug/source_debug.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__myProject\46.海外竞品数据采集\数据开发建设\_source\MEA\SA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1ED035-D4C0-488D-9504-8BF123AD1CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA069DD6-3FE7-41B7-BF0F-2E6BC49E9886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9690" windowWidth="29040" windowHeight="15720" xr2:uid="{F061D4D6-03A8-4A28-8640-0315D96DF44D}"/>
   </bookViews>
@@ -408,260 +408,343 @@
     <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006904</t>
   </si>
   <si>
-    <t>https://www.noon.com/saudi-en/freeclip-wireless-earphones-bluetooth-earbuds-futuristic-aesthetic-design-feather-like-wearing-open-ear-listening-long-battery-life-ios-and-android-purple/N70028123V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/freeclip-wireless-earphones-bluetooth-earbuds-futuristic-aesthetic-design-feather-like-wearing-open-ear-listening-long-battery-life-ios-and-android-black/N70028165V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/freeclip-wireless-earphones-bluetooth-earbuds-futuristic-aesthetic-design-feather-like-wearing-open-ear-listening-long-battery-life-ios-and-android-beige/N70060911V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/freeclip-groundbreaking-aesthetic-design-feather-light-wearing-open-ear-listening-ai-crystal-clear-call-long-battery-life-dual-device-connections-rose-gold/N70132530V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/huawei-freeclip-2-open-ear-clip-on-headphones-5-1g-lightweight-38h-battery-10-min-fast-charge-dual-driver-ip57-waterproof-ai-assistant-for-ios-android/ZD1F10632D037E5E5F209Z/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/huawei-freeclip-2-open-ear-clip-on-headphones-5-1g-lightweight-38h-battery-10-min-fast-charge-dual-driver-ip57-waterproof-ai-assistant-for-ios-android/ZE3EBB1E8EF264033CC22Z/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/huawei-freeclip-2-open-ear-clip-on-headphones-5-1g-lightweight-38h-battery-10-min-fast-charge-dual-driver-ip57-waterproof-ai-assistant-for-ios-android/Z738EC456AB46338E9045Z/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/freebuds-6-wireless-bluetooth-earbuds-dual-driver-true-sound-stable-clear-calls-comfortablt-ear-fitting-wearing-open-fit-anc-ios-and-android-black/N70170051V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/freebuds-6-wireless-bluetooth-earbuds-dual-driver-true-sound-stable-clear-calls-comfortablt-ear-fitting-wearing-open-fit-anc-ios-and-android-purple/N70170052V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/freebuds-6-wireless-bluetooth-earbuds-dual-driver-true-sound-stable-clear-calls-comfortablt-ear-fitting-wearing-open-fit-anc-ios-and-android-white/N70170050V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/freearc-open-ear-earbuds-bluetooth-earphones-with-sterling-sound-secure-fit-and-comfort-ip57-water-resistance-28-hours-playtime-sports-earphones-ios-android-windows-freearc-black/N70162340V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/freearc-open-ear-earbuds-bluetooth-earphones-with-sterling-sound-secure-fit-and-comfort-ip57-water-resistance-28-hours-playtime-sports-earphones-ios-android-windows-freearc-grey/N70162341V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/freearc-open-ear-earbuds-bluetooth-earphones-with-sterling-sound-secure-fit-and-comfort-ip57-water-resistance-28-hours-playtime-sports-earphones-ios-android-windows-freearc-green/N70162342V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/freebuds-se-4-anc-true-wireless-earbuds-multi-mode-noise-cancelling-earphones-50-hours-long-battery-life-in-ear-headphones-bluetooth-5-4-compatible-with-ios-and-android-ip54-white/N70203522V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/freebuds-se-4-anc-true-wireless-earbuds-multi-mode-noise-cancelling-earphones-50-hours-long-battery-life-in-ear-headphones-bluetooth-5-4-compatible-with-ios-and-android-ip54-black/N70203523V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/freebuds-se-3-fashion-earbuds-wireless-bluetooth-5-4-earphone-42-hour-battery-life-fine-grained-meets-futuristic-3-hour-listening-on-a-10-minute-charge-ip54-ios-android-beige/N70138900V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/freebuds-se-3-fashion-earbuds-wireless-bluetooth-5-4-earphone-42-hour-battery-life-fine-grained-meets-futuristic-3-hour-listening-on-a-10-minute-charge-ip54-ios-android-black/N70138899V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/freebuds-se-2-in-ear-earphones-wireless-bluetooth-5-3-40-hour-battery-life-3-hours-of-music-playback-on-a-10-minute-charge-compact-and-comfortable-ip54-dust-and-splash-resistance-white/N53425582A/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/freebuds-se-2-in-ear-earphones-true-wireless-earbuds-40-hour-battery-life-3-hours-of-music-playback-on-a-10-minute-charge-compact-and-comfortable-blue/N53425520A/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/freebuds-se-2-in-ear-earphones-true-wireless-earbuds-40-hour-battery-life-3-hours-of-music-playback-on-a-10-minute-charge-compact-and-comfortable-black/N70075990V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/freebuds-se-2-in-ear-earphones-wireless-bluetooth-5-3-40-hour-battery-life-3-hours-of-music-playback-on-a-10-minute-charge-compact-and-comfortable-ip54-dust-and-splash-resistance-ceramic-purple/N70083047V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/ultra-open-earbuds-with-openaudio-technology-open-ear-wireless-earbuds-up-to-48-hours-of-battery-life-black/N70047468V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/ultra-open-earbuds-with-openaudio-technology-open-ear-wireless-earbuds-diamond/N70110405V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/ultra-open-earbuds-with-openaudio-technology-open-ear-wireless-earbuds-up-to-48-hours-of-battery-life-white-smoke/N70047467V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/quietcomfort-ultra-wireless-noise-cancelling-earbuds-white/N70009785V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/quietcomfort-ultra-wireless-noise-cancelling-earbuds-black/N70008886V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/galaxy-buds-3-pro-white-with-galaxy-ai-adaptive-anc-real-time-interpreter-24-bit-hi-fi-audio-up-to-37h-battery-ip57-white/N70091992V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/galaxy-buds-3-pro-silver-with-galaxy-ai-adaptive-anc-real-time-interpreter-24-bit-hi-fi-audio-up-to-37h-battery-ip57-silver/N70094986V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/galaxy-buds-3-white-with-galaxy-ai-powered-real-time-interpreter-24-bit-hi-fi-audio-up-to-36h-battery-ip57-white/N70091990V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/galaxy-buds-3-silver-with-galaxy-ai-powered-real-time-interpreter-24-bit-hi-fi-audio-up-to-36h-battery-ip57-silver/N70090068V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/galaxy-buds3-fe-active-noise-cancellation-black/N70213175V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/galaxy-buds3-fe-active-noise-cancellation-grey/N70213174V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/galaxy-buds-core-true-wireless-bluetooth-earbuds-active-noise-cancellation-secure-fit-with-wingtip-easy-pairing-auto-switch-touch-control-black/N70187480V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/galaxy-buds-core-true-wireless-bluetooth-earbuds-active-noise-cancellation-secure-fit-with-wingtip-easy-pairing-auto-switch-touch-control-white/N70187481V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/tune-buds-2-true-wireless-noise-cancelling-earbuds-jbltbeam2wht-black/N70129535V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/tune-buds-2-true-wireless-noise-cancelling-earbuds-jbltbuds2wht-white/N70129537V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/tune-buds-2-true-wireless-noise-cancelling-earbuds-jbltbuds2tqe-tqe/N70129536V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/live-pro-2-tws-in-ear-true-wireless-earbuds-black/N53409468A/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/live-pro-2-tws-in-ear-true-wireless-earbuds-blue/N53409919A/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/wave-200-true-wireless-earbuds-black/N51642609A/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/wave-200-true-wireless-earbuds-purple/N51642611A/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/wave-200-true-wireless-earbuds-white/N51641711A/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/wave-beam-2-true-wireless-noise-cancelling-earbuds-jblwbeam2blk-black/N70129504V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/wave-beam-2-true-wireless-noise-cancelling-earbuds-jblwbeam2blu-blue/N70129505V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/wave-beam-2-true-wireless-noise-cancelling-earbuds-jblwbeam2pik-pink/N70129506V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/wave-beam-2-true-wireless-noise-cancelling-earbuds-jblwbeam2wht-white/N70129507V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/airpods-pro-2-wireless-earbuds-bluetooth-headphones-active-noise-cancellation-hearing-aid-feature-transparency-personalized-spatial-audio-high-fidelity-sound-h2-chip-usb-c-charging-white/N53437240A/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/airpods-pro-3-wireless-earbuds-bluetooth-headphones-active-noise-cancellation-hearing-test-hearing-aid-hearing-protection-features-heart-rate-sensing-during-workouts-live-translation-high-fidelity-sound-h2-chip-usb-c-charging-white/N70212301V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/airpods-4-wireless-earbuds-bluetooth-headphones-personalized-spatial-audio-sweat-and-water-resistant-usb-c-charging-case-h2-chip-up-to-30-hours-of-battery-life-effortless-setup-for-iphone-white/N70108364V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/airpods-4-anc-wireless-earbuds-bluetooth-headphones-with-active-noise-cancellation-adaptive-audio-transparency-mode-personalized-spatial-audio-usb-c-charging-case-wireless-charging-h2-chip-white/N70108365V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/wf1000xm5-truewireless-noise-cancelling-earbuds-black/N53423373A/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/wf1000xm5-truewireless-noise-cancelling-earbuds-platinum-silver/N53423374A/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/openfit-air-open-ear-headphones-true-wireless-earbuds-water-resistant-secure-earhooks-for-daily-use-black/N70169028V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/openfit-air-open-ear-headphones-true-wireless-earbuds-water-resistant-secure-earhooks-for-daily-use-white/N70169076V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/openfit-beige/N70093347V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/new-openfit-2-open-ear-headphones-true-wireless-bluetooth-earphones-with-microphone-earhook-earbuds-with-48-hours-of-playtime-fast-charging-ip55-water-resistant-with-carrying-bag-black/N70209176V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/liberty-4-pro-by-anker-noise-cancelling-wireless-earbuds-7-sensor-and-real-time-adaptive-noise-cancelling-2-faster-charging-studio-level-hi-fi-music-clear-calls-with-6-mics-and-ai-black/N70146680V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/soundcore-liberty-4-pro-by-anker-noise-cancelling-wireless-earbuds-7-sensor-and-real-time-adaptive-noise-cancelling-2-faster-charging-studio-level-hi-fi-music-clear-calls-with-6-mics-and-ai-white/N70146681V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/liberty-4-nc-earbuds-98-5-percent-noise-reduction-adaptive-cancelling-to-ears-and-environment-hi-res-sound-50h-battery-wireless-charging-bluetooth-5-3-black/N53432096A/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/liberty-4-nc-earbuds-98-5-percent-noise-reduction-adaptive-cancelling-to-ears-and-environment-hi-res-sound-50h-battery-wireless-charging-bluetooth-5-3-navy-blue/N53432098A/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/liberty-4-noise-cancelling-earbuds-true-wireless-earbuds-with-acaa-3-0-dual-dynamic-drivers-for-hi-res-premium-sound-spatial-audio-with-dual-modes-all-new-heart-rate-sensor-white/N53432168A/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/liberty-5-by-anker-noise-cancelling-wireless-earbuds-2x-stronger-voice-reduction-real-time-adaptive-noise-cancellation-fast-charging-dolby-audio-6-mic-ai-clear-calls-long-battery-life-black/N70199248V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/liberty-5-by-anker-noise-cancelling-wireless-earbuds-2x-stronger-voice-reduction-real-time-adaptive-noise-cancellation-fast-charging-dolby-audio-6-mic-ai-clear-calls-long-battery-life-blue/N70199247V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/liberty-5-by-anker-noise-cancelling-wireless-earbuds-2x-stronger-voice-reduction-real-time-adaptive-noise-cancellation-fast-charging-dolby-audio-6-mic-ai-clear-calls-long-battery-life-white/N70199249V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/p20i-bluetooth-earphones-10mm-drivers-with-big-bass-true-wireless-earbuds-30h-playtime-ipx5-2-mics-for-ai-clear-calls-22-preset-eqs-customization-via-app-black/N53406571A/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/p20i-true-wireless-earbuds-10mm-drivers-with-big-bass-30h-long-playtime-ipx5-water-resistant-2-mics-for-ai-clear-calls-22-preset-eqs-customization-via-app-blue/N53406573A/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/by-anker-p20i-true-wireless-earbuds-10mm-drivers-with-big-bass-bluetooth-5-3-30h-playtime-water-resistant-2-mics-for-ai-clear-calls-22-preset-eqs-customization-via-app-pink/N70165130V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/p20i-bluetooth-earphones-10mm-drivers-with-big-bass-true-wireless-earbuds-bluetooth-5-3-30h-playtime-ipx5-2-mics-for-ai-clear-calls-22-preset-eqs-customization-via-app-white/N53406572A/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/p31i-by-anker-real-time-adaptive-noise-cancelling-hi-res-sound-translation-earbuds-50h-playtime-wireless-earbuds-bluetooth-earphones-spatial-audio-fast-charging-ip55-black/N70260966V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/p31i-by-anker-real-time-adaptive-noise-cancelling-hi-res-sound-translation-earbuds-50h-playtime-wireless-earbuds-bluetooth-earphones-spatial-audio-fast-charging-ip55-light-blue/N70260967V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/p31i-by-anker-real-time-adaptive-noise-cancelling-hi-res-sound-translation-earbuds-50h-playtime-wireless-earbuds-bluetooth-earphones-spatial-audio-fast-charging-ip55-pink/N70260968V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/p31i-by-anker-real-time-adaptive-noise-cancelling-hi-res-sound-translation-earbuds-50h-playtime-wireless-earbuds-bluetooth-earphones-spatial-audio-fast-charging-ip55-white/N70260951V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/soundcore-p40i-by-anker-noise-cancelling-wireless-earbuds-adaptive-noise-cancelling-to-environments-heavy-bass-60h-playtime-2-in-1-case-and-phone-stand-ipx5-wireless-charging-bluetooth-5-3-black/N70087575V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/p40i-by-anker-noise-cancelling-wireless-earbuds-adaptive-noise-cancelling-to-environments-heavy-bass-60h-playtime-2-in-1-case-and-phone-stand-ipx5-wireless-charging-bluetooth-5-3-blue/N70080625V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/p40i-by-anker-noise-cancelling-wireless-earbuds-adaptive-noise-cancelling-to-environments-heavy-bass-60h-playtime-2-in-1-case-and-phone-stand-ipx5-wireless-charging-bluetooth-5-3-white/N70068108V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/xiaomi-redmi-buds-6-pro-black-36h-battery-life-triple-driver-hi-fi-sound-55-db-anc-20-anc-levels-3-transparency-modes-immersive-3d-audio-bluetooth-5-3-google-fast-pair-hi-res-audio-space-black/N70142766V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/redmi-buds-6-pro-55db-anc-with-20-level-modes-3-mic-ai-clear-call-hi-res-audio-wireless-and-supports-ldac-audio-codec-lavender-purple/N70139842V/p/</t>
-  </si>
-  <si>
-    <t>noon.com/saudi-en/xiaomi-redmi-buds-6-pro-glacier-white-36h-battery-life-triple-driver-hi-fi-sound-55-db-anc-20-anc-levels-3-transparency-modes-immersive-3d-audio-bluetooth-5-3-google-fast-pair-hi-res-audio-glacier-white/N70142765V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/buds-6-lite-black-black/N70155849V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/buds-6-lite-white-white/N70155850V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/xiaomi-redmi-buds-6-active-ai-wireless-earphones-noise-canceling-calls-bluetooth-5-4-low-latency-deep-bass-google-fast-pair-fast-charging-usb-type-c-up-to-30-hours-battery-life-with-charging-case-lightweight-white/N70100859V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/redmi-buds-6-active-transparent-powder-transparent-pink/N70176634V/p/</t>
-  </si>
-  <si>
-    <t>https://www.noon.com/saudi-en/xiaomi-redmi-buds-6-active-ai-wireless-earphones-noise-canceling-calls-bluetooth-5-4-low-latency-deep-bass-google-fast-pair-fast-charging-usb-type-c-up-to-30-hours-battery-life-with-charging-case-lightweight-blue/N70099776V/p/</t>
+    <t>https://www.noon.com/saudi-en/freeclip-wireless-earphones-bluetooth-earbuds-futuristic-aesthetic-design-feather-like-wearing-open-ear-listening-long-battery-life-ios-and-android-purple/N70028123V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freeclip-wireless-earphones-bluetooth-earbuds-futuristic-aesthetic-design-feather-like-wearing-open-ear-listening-long-battery-life-ios-and-android-black/N70028165V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freeclip-wireless-earphones-bluetooth-earbuds-futuristic-aesthetic-design-feather-like-wearing-open-ear-listening-long-battery-life-ios-and-android-beige/N70060911V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freeclip-groundbreaking-aesthetic-design-feather-light-wearing-open-ear-listening-ai-crystal-clear-call-long-battery-life-dual-device-connections-rose-gold/N70132530V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/huawei-freeclip-2-open-ear-clip-on-headphones-5-1g-lightweight-38h-battery-10-min-fast-charge-dual-driver-ip57-waterproof-ai-assistant-for-ios-android/ZD1F10632D037E5E5F209Z/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/huawei-freeclip-2-open-ear-clip-on-headphones-5-1g-lightweight-38h-battery-10-min-fast-charge-dual-driver-ip57-waterproof-ai-assistant-for-ios-android/ZE3EBB1E8EF264033CC22Z/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/huawei-freeclip-2-open-ear-clip-on-headphones-5-1g-lightweight-38h-battery-10-min-fast-charge-dual-driver-ip57-waterproof-ai-assistant-for-ios-android/Z738EC456AB46338E9045Z/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-6-wireless-bluetooth-earbuds-dual-driver-true-sound-stable-clear-calls-comfortablt-ear-fitting-wearing-open-fit-anc-ios-and-android-black/N70170051V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-6-wireless-bluetooth-earbuds-dual-driver-true-sound-stable-clear-calls-comfortablt-ear-fitting-wearing-open-fit-anc-ios-and-android-purple/N70170052V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-6-wireless-bluetooth-earbuds-dual-driver-true-sound-stable-clear-calls-comfortablt-ear-fitting-wearing-open-fit-anc-ios-and-android-white/N70170050V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freearc-open-ear-earbuds-bluetooth-earphones-with-sterling-sound-secure-fit-and-comfort-ip57-water-resistance-28-hours-playtime-sports-earphones-ios-android-windows-freearc-black/N70162340V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freearc-open-ear-earbuds-bluetooth-earphones-with-sterling-sound-secure-fit-and-comfort-ip57-water-resistance-28-hours-playtime-sports-earphones-ios-android-windows-freearc-grey/N70162341V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freearc-open-ear-earbuds-bluetooth-earphones-with-sterling-sound-secure-fit-and-comfort-ip57-water-resistance-28-hours-playtime-sports-earphones-ios-android-windows-freearc-green/N70162342V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-se-4-anc-true-wireless-earbuds-multi-mode-noise-cancelling-earphones-50-hours-long-battery-life-in-ear-headphones-bluetooth-5-4-compatible-with-ios-and-android-ip54-white/N70203522V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-se-4-anc-true-wireless-earbuds-multi-mode-noise-cancelling-earphones-50-hours-long-battery-life-in-ear-headphones-bluetooth-5-4-compatible-with-ios-and-android-ip54-black/N70203523V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-se-3-fashion-earbuds-wireless-bluetooth-5-4-earphone-42-hour-battery-life-fine-grained-meets-futuristic-3-hour-listening-on-a-10-minute-charge-ip54-ios-android-beige/N70138900V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-se-3-fashion-earbuds-wireless-bluetooth-5-4-earphone-42-hour-battery-life-fine-grained-meets-futuristic-3-hour-listening-on-a-10-minute-charge-ip54-ios-android-black/N70138899V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-se-2-in-ear-earphones-wireless-bluetooth-5-3-40-hour-battery-life-3-hours-of-music-playback-on-a-10-minute-charge-compact-and-comfortable-ip54-dust-and-splash-resistance-white/N53425582A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-se-2-in-ear-earphones-true-wireless-earbuds-40-hour-battery-life-3-hours-of-music-playback-on-a-10-minute-charge-compact-and-comfortable-blue/N53425520A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-se-2-in-ear-earphones-true-wireless-earbuds-40-hour-battery-life-3-hours-of-music-playback-on-a-10-minute-charge-compact-and-comfortable-black/N70075990V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/freebuds-se-2-in-ear-earphones-wireless-bluetooth-5-3-40-hour-battery-life-3-hours-of-music-playback-on-a-10-minute-charge-compact-and-comfortable-ip54-dust-and-splash-resistance-ceramic-purple/N70083047V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/ultra-open-earbuds-with-openaudio-technology-open-ear-wireless-earbuds-up-to-48-hours-of-battery-life-black/N70047468V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/ultra-open-earbuds-with-openaudio-technology-open-ear-wireless-earbuds-diamond/N70110405V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/ultra-open-earbuds-with-openaudio-technology-open-ear-wireless-earbuds-up-to-48-hours-of-battery-life-white-smoke/N70047467V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/quietcomfort-ultra-wireless-noise-cancelling-earbuds-white/N70009785V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/quietcomfort-ultra-wireless-noise-cancelling-earbuds-black/N70008886V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/galaxy-buds-3-pro-white-with-galaxy-ai-adaptive-anc-real-time-interpreter-24-bit-hi-fi-audio-up-to-37h-battery-ip57-white/N70091992V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/galaxy-buds-3-pro-silver-with-galaxy-ai-adaptive-anc-real-time-interpreter-24-bit-hi-fi-audio-up-to-37h-battery-ip57-silver/N70094986V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/galaxy-buds-3-white-with-galaxy-ai-powered-real-time-interpreter-24-bit-hi-fi-audio-up-to-36h-battery-ip57-white/N70091990V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/galaxy-buds-3-silver-with-galaxy-ai-powered-real-time-interpreter-24-bit-hi-fi-audio-up-to-36h-battery-ip57-silver/N70090068V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/galaxy-buds3-fe-active-noise-cancellation-black/N70213175V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/galaxy-buds3-fe-active-noise-cancellation-grey/N70213174V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/galaxy-buds-core-true-wireless-bluetooth-earbuds-active-noise-cancellation-secure-fit-with-wingtip-easy-pairing-auto-switch-touch-control-black/N70187480V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/galaxy-buds-core-true-wireless-bluetooth-earbuds-active-noise-cancellation-secure-fit-with-wingtip-easy-pairing-auto-switch-touch-control-white/N70187481V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/tune-buds-2-true-wireless-noise-cancelling-earbuds-jbltbeam2wht-black/N70129535V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/tune-buds-2-true-wireless-noise-cancelling-earbuds-jbltbuds2wht-white/N70129537V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/tune-buds-2-true-wireless-noise-cancelling-earbuds-jbltbuds2tqe-tqe/N70129536V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/live-pro-2-tws-in-ear-true-wireless-earbuds-black/N53409468A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/live-pro-2-tws-in-ear-true-wireless-earbuds-blue/N53409919A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/wave-200-true-wireless-earbuds-black/N51642609A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/wave-200-true-wireless-earbuds-purple/N51642611A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/wave-200-true-wireless-earbuds-white/N51641711A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/wave-beam-2-true-wireless-noise-cancelling-earbuds-jblwbeam2blk-black/N70129504V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/wave-beam-2-true-wireless-noise-cancelling-earbuds-jblwbeam2blu-blue/N70129505V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/wave-beam-2-true-wireless-noise-cancelling-earbuds-jblwbeam2pik-pink/N70129506V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/wave-beam-2-true-wireless-noise-cancelling-earbuds-jblwbeam2wht-white/N70129507V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/airpods-pro-2-wireless-earbuds-bluetooth-headphones-active-noise-cancellation-hearing-aid-feature-transparency-personalized-spatial-audio-high-fidelity-sound-h2-chip-usb-c-charging-white/N53437240A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/airpods-pro-3-wireless-earbuds-bluetooth-headphones-active-noise-cancellation-hearing-test-hearing-aid-hearing-protection-features-heart-rate-sensing-during-workouts-live-translation-high-fidelity-sound-h2-chip-usb-c-charging-white/N70212301V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/airpods-4-wireless-earbuds-bluetooth-headphones-personalized-spatial-audio-sweat-and-water-resistant-usb-c-charging-case-h2-chip-up-to-30-hours-of-battery-life-effortless-setup-for-iphone-white/N70108364V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/airpods-4-anc-wireless-earbuds-bluetooth-headphones-with-active-noise-cancellation-adaptive-audio-transparency-mode-personalized-spatial-audio-usb-c-charging-case-wireless-charging-h2-chip-white/N70108365V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/wf1000xm5-truewireless-noise-cancelling-earbuds-black/N53423373A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/wf1000xm5-truewireless-noise-cancelling-earbuds-platinum-silver/N53423374A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/openfit-air-open-ear-headphones-true-wireless-earbuds-water-resistant-secure-earhooks-for-daily-use-black/N70169028V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/openfit-air-open-ear-headphones-true-wireless-earbuds-water-resistant-secure-earhooks-for-daily-use-white/N70169076V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/openfit-beige/N70093347V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/new-openfit-2-open-ear-headphones-true-wireless-bluetooth-earphones-with-microphone-earhook-earbuds-with-48-hours-of-playtime-fast-charging-ip55-water-resistant-with-carrying-bag-black/N70209176V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/liberty-4-pro-by-anker-noise-cancelling-wireless-earbuds-7-sensor-and-real-time-adaptive-noise-cancelling-2-faster-charging-studio-level-hi-fi-music-clear-calls-with-6-mics-and-ai-black/N70146680V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/soundcore-liberty-4-pro-by-anker-noise-cancelling-wireless-earbuds-7-sensor-and-real-time-adaptive-noise-cancelling-2-faster-charging-studio-level-hi-fi-music-clear-calls-with-6-mics-and-ai-white/N70146681V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/liberty-4-nc-earbuds-98-5-percent-noise-reduction-adaptive-cancelling-to-ears-and-environment-hi-res-sound-50h-battery-wireless-charging-bluetooth-5-3-black/N53432096A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/liberty-4-nc-earbuds-98-5-percent-noise-reduction-adaptive-cancelling-to-ears-and-environment-hi-res-sound-50h-battery-wireless-charging-bluetooth-5-3-navy-blue/N53432098A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/liberty-4-noise-cancelling-earbuds-true-wireless-earbuds-with-acaa-3-0-dual-dynamic-drivers-for-hi-res-premium-sound-spatial-audio-with-dual-modes-all-new-heart-rate-sensor-white/N53432168A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/liberty-5-by-anker-noise-cancelling-wireless-earbuds-2x-stronger-voice-reduction-real-time-adaptive-noise-cancellation-fast-charging-dolby-audio-6-mic-ai-clear-calls-long-battery-life-black/N70199248V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/liberty-5-by-anker-noise-cancelling-wireless-earbuds-2x-stronger-voice-reduction-real-time-adaptive-noise-cancellation-fast-charging-dolby-audio-6-mic-ai-clear-calls-long-battery-life-blue/N70199247V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/liberty-5-by-anker-noise-cancelling-wireless-earbuds-2x-stronger-voice-reduction-real-time-adaptive-noise-cancellation-fast-charging-dolby-audio-6-mic-ai-clear-calls-long-battery-life-white/N70199249V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/p20i-bluetooth-earphones-10mm-drivers-with-big-bass-true-wireless-earbuds-30h-playtime-ipx5-2-mics-for-ai-clear-calls-22-preset-eqs-customization-via-app-black/N53406571A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/p20i-true-wireless-earbuds-10mm-drivers-with-big-bass-30h-long-playtime-ipx5-water-resistant-2-mics-for-ai-clear-calls-22-preset-eqs-customization-via-app-blue/N53406573A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/by-anker-p20i-true-wireless-earbuds-10mm-drivers-with-big-bass-bluetooth-5-3-30h-playtime-water-resistant-2-mics-for-ai-clear-calls-22-preset-eqs-customization-via-app-pink/N70165130V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/p20i-bluetooth-earphones-10mm-drivers-with-big-bass-true-wireless-earbuds-bluetooth-5-3-30h-playtime-ipx5-2-mics-for-ai-clear-calls-22-preset-eqs-customization-via-app-white/N53406572A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/p31i-by-anker-real-time-adaptive-noise-cancelling-hi-res-sound-translation-earbuds-50h-playtime-wireless-earbuds-bluetooth-earphones-spatial-audio-fast-charging-ip55-black/N70260966V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/p31i-by-anker-real-time-adaptive-noise-cancelling-hi-res-sound-translation-earbuds-50h-playtime-wireless-earbuds-bluetooth-earphones-spatial-audio-fast-charging-ip55-light-blue/N70260967V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/p31i-by-anker-real-time-adaptive-noise-cancelling-hi-res-sound-translation-earbuds-50h-playtime-wireless-earbuds-bluetooth-earphones-spatial-audio-fast-charging-ip55-pink/N70260968V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/p31i-by-anker-real-time-adaptive-noise-cancelling-hi-res-sound-translation-earbuds-50h-playtime-wireless-earbuds-bluetooth-earphones-spatial-audio-fast-charging-ip55-white/N70260951V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/soundcore-p40i-by-anker-noise-cancelling-wireless-earbuds-adaptive-noise-cancelling-to-environments-heavy-bass-60h-playtime-2-in-1-case-and-phone-stand-ipx5-wireless-charging-bluetooth-5-3-black/N70087575V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/p40i-by-anker-noise-cancelling-wireless-earbuds-adaptive-noise-cancelling-to-environments-heavy-bass-60h-playtime-2-in-1-case-and-phone-stand-ipx5-wireless-charging-bluetooth-5-3-blue/N70080625V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/p40i-by-anker-noise-cancelling-wireless-earbuds-adaptive-noise-cancelling-to-environments-heavy-bass-60h-playtime-2-in-1-case-and-phone-stand-ipx5-wireless-charging-bluetooth-5-3-white/N70068108V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/xiaomi-redmi-buds-6-pro-black-36h-battery-life-triple-driver-hi-fi-sound-55-db-anc-20-anc-levels-3-transparency-modes-immersive-3d-audio-bluetooth-5-3-google-fast-pair-hi-res-audio-space-black/N70142766V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/redmi-buds-6-pro-55db-anc-with-20-level-modes-3-mic-ai-clear-call-hi-res-audio-wireless-and-supports-ldac-audio-codec-lavender-purple/N70139842V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/buds-6-lite-black-black/N70155849V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/buds-6-lite-white-white/N70155850V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/xiaomi-redmi-buds-6-active-ai-wireless-earphones-noise-canceling-calls-bluetooth-5-4-low-latency-deep-bass-google-fast-pair-fast-charging-usb-type-c-up-to-30-hours-battery-life-with-charging-case-lightweight-white/N70100859V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/redmi-buds-6-active-transparent-powder-transparent-pink/N70176634V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/xiaomi-redmi-buds-6-active-ai-wireless-earphones-noise-canceling-calls-bluetooth-5-4-low-latency-deep-bass-google-fast-pair-fast-charging-usb-type-c-up-to-30-hours-battery-life-with-charging-case-lightweight-blue/N70099776V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-en/xiaomi-redmi-buds-6-pro-glacier-white-36h-battery-life-triple-driver-hi-fi-sound-55-db-anc-20-anc-levels-3-transparency-modes-immersive-3d-audio-bluetooth-5-3-google-fast-pair-hi-res-audio-glacier-white/N70142765V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,6 +764,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -707,12 +799,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,9 +817,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1038,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1074,7 +1173,7 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1088,7 +1187,7 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1102,7 +1201,7 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1116,7 +1215,7 @@
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1130,7 +1229,7 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1144,7 +1243,7 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1158,7 +1257,7 @@
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1172,7 +1271,7 @@
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1186,7 +1285,7 @@
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1200,7 +1299,7 @@
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1214,7 +1313,7 @@
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1228,7 +1327,7 @@
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1242,7 +1341,7 @@
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1256,7 +1355,7 @@
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1270,7 +1369,7 @@
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1284,7 +1383,7 @@
       <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1298,7 +1397,7 @@
       <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1312,7 +1411,7 @@
       <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1326,7 +1425,7 @@
       <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1340,7 +1439,7 @@
       <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1354,7 +1453,7 @@
       <c r="C22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1368,7 +1467,7 @@
       <c r="C23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1382,7 +1481,7 @@
       <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1396,7 +1495,7 @@
       <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1410,7 +1509,7 @@
       <c r="C26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1424,7 +1523,7 @@
       <c r="C27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1438,7 +1537,7 @@
       <c r="C28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1452,7 +1551,7 @@
       <c r="C29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1466,7 +1565,7 @@
       <c r="C30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1480,7 +1579,7 @@
       <c r="C31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1494,7 +1593,7 @@
       <c r="C32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1508,7 +1607,7 @@
       <c r="C33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1522,7 +1621,7 @@
       <c r="C34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1536,7 +1635,7 @@
       <c r="C35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1550,7 +1649,7 @@
       <c r="C36" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1564,7 +1663,7 @@
       <c r="C37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1578,7 +1677,7 @@
       <c r="C38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1592,7 +1691,7 @@
       <c r="C39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1606,7 +1705,7 @@
       <c r="C40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>161</v>
       </c>
     </row>
@@ -1620,7 +1719,7 @@
       <c r="C41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1634,7 +1733,7 @@
       <c r="C42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1648,7 +1747,7 @@
       <c r="C43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1662,7 +1761,7 @@
       <c r="C44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1676,7 +1775,7 @@
       <c r="C45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1690,7 +1789,7 @@
       <c r="C46" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1704,7 +1803,7 @@
       <c r="C47" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="3" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1718,7 +1817,7 @@
       <c r="C48" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1732,7 +1831,7 @@
       <c r="C49" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1746,7 +1845,7 @@
       <c r="C50" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1760,7 +1859,7 @@
       <c r="C51" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="3" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1774,7 +1873,7 @@
       <c r="C52" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="3" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1788,7 +1887,7 @@
       <c r="C53" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1802,7 +1901,7 @@
       <c r="C54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="3" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1816,7 +1915,7 @@
       <c r="C55" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="3" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1830,7 +1929,7 @@
       <c r="C56" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="3" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1844,7 +1943,7 @@
       <c r="C57" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1858,7 +1957,7 @@
       <c r="C58" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1872,7 +1971,7 @@
       <c r="C59" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="3" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1886,7 +1985,7 @@
       <c r="C60" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="3" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1900,7 +1999,7 @@
       <c r="C61" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="3" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1914,7 +2013,7 @@
       <c r="C62" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1928,7 +2027,7 @@
       <c r="C63" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="3" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1942,7 +2041,7 @@
       <c r="C64" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1956,7 +2055,7 @@
       <c r="C65" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1970,7 +2069,7 @@
       <c r="C66" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="3" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1984,7 +2083,7 @@
       <c r="C67" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="3" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1998,7 +2097,7 @@
       <c r="C68" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="3" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2012,7 +2111,7 @@
       <c r="C69" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="3" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2026,7 +2125,7 @@
       <c r="C70" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="3" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2040,7 +2139,7 @@
       <c r="C71" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="3" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2054,7 +2153,7 @@
       <c r="C72" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="3" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2068,7 +2167,7 @@
       <c r="C73" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="3" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2082,7 +2181,7 @@
       <c r="C74" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2096,7 +2195,7 @@
       <c r="C75" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="3" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2110,7 +2209,7 @@
       <c r="C76" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="3" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2124,7 +2223,7 @@
       <c r="C77" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="3" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2138,7 +2237,7 @@
       <c r="C78" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="3" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2152,8 +2251,8 @@
       <c r="C79" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>200</v>
+      <c r="D79" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2166,8 +2265,8 @@
       <c r="C80" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>201</v>
+      <c r="D80" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2180,8 +2279,8 @@
       <c r="C81" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>202</v>
+      <c r="D81" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2194,8 +2293,8 @@
       <c r="C82" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>203</v>
+      <c r="D82" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2208,8 +2307,8 @@
       <c r="C83" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>204</v>
+      <c r="D83" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2222,8 +2321,8 @@
       <c r="C84" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>205</v>
+      <c r="D84" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2610,7 +2709,92 @@
     <sortCondition ref="B2:B111"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://www.noon.com/saudi-en/freeclip-wireless-earphones-bluetooth-earbuds-futuristic-aesthetic-design-feather-like-wearing-open-ear-listening-long-battery-life-ios-and-android-purple/N70028123V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{20E48372-F391-4F7E-A6FF-25A4026A346D}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://www.noon.com/saudi-en/freeclip-wireless-earphones-bluetooth-earbuds-futuristic-aesthetic-design-feather-like-wearing-open-ear-listening-long-battery-life-ios-and-android-black/N70028165V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{7022250F-64A8-4560-9F5B-BA9CAA17C406}"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://www.noon.com/saudi-en/freeclip-wireless-earphones-bluetooth-earbuds-futuristic-aesthetic-design-feather-like-wearing-open-ear-listening-long-battery-life-ios-and-android-beige/N70060911V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{3E1559D8-9B2A-4264-8A9E-83412AB2A33C}"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://www.noon.com/saudi-en/freeclip-groundbreaking-aesthetic-design-feather-light-wearing-open-ear-listening-ai-crystal-clear-call-long-battery-life-dual-device-connections-rose-gold/N70132530V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{130BB3A9-E35E-4FA8-ADE4-6541951742E1}"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://www.noon.com/saudi-en/huawei-freeclip-2-open-ear-clip-on-headphones-5-1g-lightweight-38h-battery-10-min-fast-charge-dual-driver-ip57-waterproof-ai-assistant-for-ios-android/ZD1F10632D037E5E5F209Z/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{64A0638F-8B02-4598-8DB8-3EA22E23B641}"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://www.noon.com/saudi-en/huawei-freeclip-2-open-ear-clip-on-headphones-5-1g-lightweight-38h-battery-10-min-fast-charge-dual-driver-ip57-waterproof-ai-assistant-for-ios-android/ZE3EBB1E8EF264033CC22Z/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{6E2600F4-FDFA-4467-AC1C-0C4B81B215A7}"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://www.noon.com/saudi-en/huawei-freeclip-2-open-ear-clip-on-headphones-5-1g-lightweight-38h-battery-10-min-fast-charge-dual-driver-ip57-waterproof-ai-assistant-for-ios-android/Z738EC456AB46338E9045Z/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{DC430161-C000-4D8C-8B8F-CBE3BBEA5F03}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{7A5BD8CD-8B45-4529-B69B-C01549F6DD0B}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{837DC1C0-6744-49E4-B294-CC64D102FAA3}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{6F7F8F1B-AE51-42FF-A8A9-1DC7DBA8893F}"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://www.noon.com/saudi-en/freearc-open-ear-earbuds-bluetooth-earphones-with-sterling-sound-secure-fit-and-comfort-ip57-water-resistance-28-hours-playtime-sports-earphones-ios-android-windows-freearc-black/N70162340V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{E9FFA1EC-0F34-403F-8BE8-EDAF19188936}"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://www.noon.com/saudi-en/freearc-open-ear-earbuds-bluetooth-earphones-with-sterling-sound-secure-fit-and-comfort-ip57-water-resistance-28-hours-playtime-sports-earphones-ios-android-windows-freearc-grey/N70162341V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{F3351C15-7446-4239-A642-D21867FC6717}"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://www.noon.com/saudi-en/freearc-open-ear-earbuds-bluetooth-earphones-with-sterling-sound-secure-fit-and-comfort-ip57-water-resistance-28-hours-playtime-sports-earphones-ios-android-windows-freearc-green/N70162342V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{CF34E2B8-161F-4F3A-B1ED-814FDA55A196}"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://www.noon.com/saudi-en/freebuds-se-4-anc-true-wireless-earbuds-multi-mode-noise-cancelling-earphones-50-hours-long-battery-life-in-ear-headphones-bluetooth-5-4-compatible-with-ios-and-android-ip54-white/N70203522V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{8476CE32-591A-4E7F-B623-04CE34D568AF}"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://www.noon.com/saudi-en/freebuds-se-4-anc-true-wireless-earbuds-multi-mode-noise-cancelling-earphones-50-hours-long-battery-life-in-ear-headphones-bluetooth-5-4-compatible-with-ios-and-android-ip54-black/N70203523V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{79A89C44-38EB-4D01-9D15-484C52FE6398}"/>
+    <hyperlink ref="D17" r:id="rId16" display="https://www.noon.com/saudi-en/freebuds-se-3-fashion-earbuds-wireless-bluetooth-5-4-earphone-42-hour-battery-life-fine-grained-meets-futuristic-3-hour-listening-on-a-10-minute-charge-ip54-ios-android-beige/N70138900V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{0C378F9F-C429-4987-BA45-BDC77EE5E088}"/>
+    <hyperlink ref="D18" r:id="rId17" display="https://www.noon.com/saudi-en/freebuds-se-3-fashion-earbuds-wireless-bluetooth-5-4-earphone-42-hour-battery-life-fine-grained-meets-futuristic-3-hour-listening-on-a-10-minute-charge-ip54-ios-android-black/N70138899V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{3E3EBDC4-B6A0-4BE0-9049-E3B1CF4F49E8}"/>
+    <hyperlink ref="D19" r:id="rId18" display="https://www.noon.com/saudi-en/freebuds-se-2-in-ear-earphones-wireless-bluetooth-5-3-40-hour-battery-life-3-hours-of-music-playback-on-a-10-minute-charge-compact-and-comfortable-ip54-dust-and-splash-resistance-white/N53425582A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{7F4DBBD0-4F49-46EE-A4EB-0DA40AA76AC0}"/>
+    <hyperlink ref="D20" r:id="rId19" display="https://www.noon.com/saudi-en/freebuds-se-2-in-ear-earphones-true-wireless-earbuds-40-hour-battery-life-3-hours-of-music-playback-on-a-10-minute-charge-compact-and-comfortable-blue/N53425520A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{EE33ECA3-D185-4581-AD0F-182FBE2BE2B4}"/>
+    <hyperlink ref="D21" r:id="rId20" display="https://www.noon.com/saudi-en/freebuds-se-2-in-ear-earphones-true-wireless-earbuds-40-hour-battery-life-3-hours-of-music-playback-on-a-10-minute-charge-compact-and-comfortable-black/N70075990V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{922D1798-0664-4987-B94F-68C3D02B91E6}"/>
+    <hyperlink ref="D22" r:id="rId21" display="https://www.noon.com/saudi-en/freebuds-se-2-in-ear-earphones-wireless-bluetooth-5-3-40-hour-battery-life-3-hours-of-music-playback-on-a-10-minute-charge-compact-and-comfortable-ip54-dust-and-splash-resistance-ceramic-purple/N70083047V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{4914195B-D7EE-475D-A1CB-685A9DE2BED7}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{8C6A90EC-40E5-4A0E-80CC-48461A637DC2}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{ED5C1590-EB23-4B64-B873-92E4F3E99548}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{EA9BF7BB-64A1-40B7-A30F-B086731E42DD}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{096539FD-D6DD-4607-A20A-9EC3BF013149}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{8652B2BF-BAA1-4541-9D59-B207C8B58AE8}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{56D077FF-5D38-4E25-AB2F-82EEB9A7AA37}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{4CD77B2F-33FC-4B1C-9DE8-65C3FAE6912C}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{EBBFC9E1-3DDE-482E-BB44-7A36BA3F5010}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{A208F75A-8C01-452A-A14C-42CC0AF14533}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{342A1DF1-D368-4B13-93E5-D4AA5273F95B}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{288A29FC-7F32-4F74-AD24-D8BAB64882C2}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{B9307C60-D0AF-40A1-A278-CE91343CD893}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{5AC4E386-E79A-417C-91FC-735973DD9BEB}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{77B9324F-2F95-4E98-9F98-62C93C9C277F}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{23C656F9-F175-419D-A994-FF87556A9792}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{2EAF3998-3425-40FC-A460-67D6FA8C7319}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{0F297090-81B1-4A7D-846F-E89BAB51877E}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{A4F01763-E86C-4313-A4E3-EC3DE39D602C}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{9136A4B6-5AD3-4D56-BC57-50BCFD55B05B}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{72BCCB2A-A068-4E74-8551-606FEF55E17B}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{62CCE7E2-7C61-43C4-AEDA-E0E781075CF0}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{753EC3A3-902C-4F35-91E4-9D02E4F81C46}"/>
+    <hyperlink ref="D45" r:id="rId44" xr:uid="{6020D319-BC53-4FF7-A66C-E9A1D9774238}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{3268DA07-2D0E-43EA-9CD3-7EC3D7F7D05C}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{87501E69-9A21-4E2C-ABBA-03E8F0B47E08}"/>
+    <hyperlink ref="D48" r:id="rId47" display="https://www.noon.com/saudi-en/airpods-pro-2-wireless-earbuds-bluetooth-headphones-active-noise-cancellation-hearing-aid-feature-transparency-personalized-spatial-audio-high-fidelity-sound-h2-chip-usb-c-charging-white/N53437240A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{8494A1B7-BD42-46D4-8671-254C1893A330}"/>
+    <hyperlink ref="D49" r:id="rId48" display="https://www.noon.com/saudi-en/airpods-pro-3-wireless-earbuds-bluetooth-headphones-active-noise-cancellation-hearing-test-hearing-aid-hearing-protection-features-heart-rate-sensing-during-workouts-live-translation-high-fidelity-sound-h2-chip-usb-c-charging-white/N70212301V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{579B7352-4EAA-4FD9-BF31-B2C1EFA5DD06}"/>
+    <hyperlink ref="D50" r:id="rId49" display="https://www.noon.com/saudi-en/airpods-4-wireless-earbuds-bluetooth-headphones-personalized-spatial-audio-sweat-and-water-resistant-usb-c-charging-case-h2-chip-up-to-30-hours-of-battery-life-effortless-setup-for-iphone-white/N70108364V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{240D5986-58E5-4C43-B2F2-5875FA58B519}"/>
+    <hyperlink ref="D51" r:id="rId50" display="https://www.noon.com/saudi-en/airpods-4-anc-wireless-earbuds-bluetooth-headphones-with-active-noise-cancellation-adaptive-audio-transparency-mode-personalized-spatial-audio-usb-c-charging-case-wireless-charging-h2-chip-white/N70108365V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{40A8C52F-3492-45EA-BB45-29C9E5CE726D}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{A2CA48F3-9CF8-423F-907E-0C3DA055BACA}"/>
+    <hyperlink ref="D53" r:id="rId52" xr:uid="{3075C41F-D39B-4F72-9541-0F14307CF879}"/>
+    <hyperlink ref="D54" r:id="rId53" xr:uid="{7A7BC551-B947-4301-AF3E-A6DABCFFBE13}"/>
+    <hyperlink ref="D55" r:id="rId54" xr:uid="{3D184003-9487-4073-B63A-06827A9050FA}"/>
+    <hyperlink ref="D56" r:id="rId55" xr:uid="{A3E48527-4437-4416-9986-841C2470FE33}"/>
+    <hyperlink ref="D57" r:id="rId56" display="https://www.noon.com/saudi-en/new-openfit-2-open-ear-headphones-true-wireless-bluetooth-earphones-with-microphone-earhook-earbuds-with-48-hours-of-playtime-fast-charging-ip55-water-resistant-with-carrying-bag-black/N70209176V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{9AEA86C3-CED7-41E6-906E-792CD6FAAD11}"/>
+    <hyperlink ref="D58" r:id="rId57" display="https://www.noon.com/saudi-en/liberty-4-pro-by-anker-noise-cancelling-wireless-earbuds-7-sensor-and-real-time-adaptive-noise-cancelling-2-faster-charging-studio-level-hi-fi-music-clear-calls-with-6-mics-and-ai-black/N70146680V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{49DA2AE4-3376-499F-B054-92554334873C}"/>
+    <hyperlink ref="D59" r:id="rId58" display="https://www.noon.com/saudi-en/soundcore-liberty-4-pro-by-anker-noise-cancelling-wireless-earbuds-7-sensor-and-real-time-adaptive-noise-cancelling-2-faster-charging-studio-level-hi-fi-music-clear-calls-with-6-mics-and-ai-white/N70146681V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{4A9FD276-E13C-48DD-84A6-41EAC44300E0}"/>
+    <hyperlink ref="D60" r:id="rId59" display="https://www.noon.com/saudi-en/liberty-4-nc-earbuds-98-5-percent-noise-reduction-adaptive-cancelling-to-ears-and-environment-hi-res-sound-50h-battery-wireless-charging-bluetooth-5-3-black/N53432096A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{5C4CF4FD-82C3-43CC-95B1-CD53EB324D4A}"/>
+    <hyperlink ref="D61" r:id="rId60" display="https://www.noon.com/saudi-en/liberty-4-nc-earbuds-98-5-percent-noise-reduction-adaptive-cancelling-to-ears-and-environment-hi-res-sound-50h-battery-wireless-charging-bluetooth-5-3-navy-blue/N53432098A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{72F2F0DD-D89F-48CD-86F2-1DAFAC9E0EA1}"/>
+    <hyperlink ref="D62" r:id="rId61" display="https://www.noon.com/saudi-en/liberty-4-noise-cancelling-earbuds-true-wireless-earbuds-with-acaa-3-0-dual-dynamic-drivers-for-hi-res-premium-sound-spatial-audio-with-dual-modes-all-new-heart-rate-sensor-white/N53432168A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{6BC7E0C9-481E-4B4D-B9EF-3EEFCE337831}"/>
+    <hyperlink ref="D63" r:id="rId62" display="https://www.noon.com/saudi-en/liberty-5-by-anker-noise-cancelling-wireless-earbuds-2x-stronger-voice-reduction-real-time-adaptive-noise-cancellation-fast-charging-dolby-audio-6-mic-ai-clear-calls-long-battery-life-black/N70199248V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{264125AD-B6EE-4C4B-B63F-27A41302FAAB}"/>
+    <hyperlink ref="D64" r:id="rId63" display="https://www.noon.com/saudi-en/liberty-5-by-anker-noise-cancelling-wireless-earbuds-2x-stronger-voice-reduction-real-time-adaptive-noise-cancellation-fast-charging-dolby-audio-6-mic-ai-clear-calls-long-battery-life-blue/N70199247V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{453586F2-216E-4220-8344-616A48B1E5B7}"/>
+    <hyperlink ref="D65" r:id="rId64" display="https://www.noon.com/saudi-en/liberty-5-by-anker-noise-cancelling-wireless-earbuds-2x-stronger-voice-reduction-real-time-adaptive-noise-cancellation-fast-charging-dolby-audio-6-mic-ai-clear-calls-long-battery-life-white/N70199249V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{E8917DF4-B1B7-463C-9EBC-777D5BA26A7E}"/>
+    <hyperlink ref="D66" r:id="rId65" display="https://www.noon.com/saudi-en/p20i-bluetooth-earphones-10mm-drivers-with-big-bass-true-wireless-earbuds-30h-playtime-ipx5-2-mics-for-ai-clear-calls-22-preset-eqs-customization-via-app-black/N53406571A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{DADD29B8-B3C9-41D8-9B4C-C4B435E2CBE2}"/>
+    <hyperlink ref="D67" r:id="rId66" display="https://www.noon.com/saudi-en/p20i-true-wireless-earbuds-10mm-drivers-with-big-bass-30h-long-playtime-ipx5-water-resistant-2-mics-for-ai-clear-calls-22-preset-eqs-customization-via-app-blue/N53406573A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{646F8099-97E2-41E5-B449-250DC251B419}"/>
+    <hyperlink ref="D68" r:id="rId67" display="https://www.noon.com/saudi-en/by-anker-p20i-true-wireless-earbuds-10mm-drivers-with-big-bass-bluetooth-5-3-30h-playtime-water-resistant-2-mics-for-ai-clear-calls-22-preset-eqs-customization-via-app-pink/N70165130V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{D03AC36C-20C0-49D6-9239-8532DAFE0B6B}"/>
+    <hyperlink ref="D69" r:id="rId68" display="https://www.noon.com/saudi-en/p20i-bluetooth-earphones-10mm-drivers-with-big-bass-true-wireless-earbuds-bluetooth-5-3-30h-playtime-ipx5-2-mics-for-ai-clear-calls-22-preset-eqs-customization-via-app-white/N53406572A/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{60303EA4-0A40-47D2-9BDB-CF66CA20AA9C}"/>
+    <hyperlink ref="D70" r:id="rId69" display="https://www.noon.com/saudi-en/p31i-by-anker-real-time-adaptive-noise-cancelling-hi-res-sound-translation-earbuds-50h-playtime-wireless-earbuds-bluetooth-earphones-spatial-audio-fast-charging-ip55-black/N70260966V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{927EA251-F403-4A6D-9EE0-5A0C4C0A461F}"/>
+    <hyperlink ref="D71" r:id="rId70" display="https://www.noon.com/saudi-en/p31i-by-anker-real-time-adaptive-noise-cancelling-hi-res-sound-translation-earbuds-50h-playtime-wireless-earbuds-bluetooth-earphones-spatial-audio-fast-charging-ip55-light-blue/N70260967V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{50252DA0-D905-44C0-8361-E025EC25D8F2}"/>
+    <hyperlink ref="D72" r:id="rId71" display="https://www.noon.com/saudi-en/p31i-by-anker-real-time-adaptive-noise-cancelling-hi-res-sound-translation-earbuds-50h-playtime-wireless-earbuds-bluetooth-earphones-spatial-audio-fast-charging-ip55-pink/N70260968V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{37FCACC1-8BF0-4B32-B660-FA37B21C50D9}"/>
+    <hyperlink ref="D73" r:id="rId72" display="https://www.noon.com/saudi-en/p31i-by-anker-real-time-adaptive-noise-cancelling-hi-res-sound-translation-earbuds-50h-playtime-wireless-earbuds-bluetooth-earphones-spatial-audio-fast-charging-ip55-white/N70260951V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{FC078359-C9E0-44E3-84C1-44CBA4370E98}"/>
+    <hyperlink ref="D74" r:id="rId73" display="https://www.noon.com/saudi-en/soundcore-p40i-by-anker-noise-cancelling-wireless-earbuds-adaptive-noise-cancelling-to-environments-heavy-bass-60h-playtime-2-in-1-case-and-phone-stand-ipx5-wireless-charging-bluetooth-5-3-black/N70087575V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{F760B327-731F-426A-AD26-B91700D21D04}"/>
+    <hyperlink ref="D75" r:id="rId74" display="https://www.noon.com/saudi-en/p40i-by-anker-noise-cancelling-wireless-earbuds-adaptive-noise-cancelling-to-environments-heavy-bass-60h-playtime-2-in-1-case-and-phone-stand-ipx5-wireless-charging-bluetooth-5-3-blue/N70080625V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{A5A86694-39EA-4BB6-824A-8A4D4966D825}"/>
+    <hyperlink ref="D76" r:id="rId75" display="https://www.noon.com/saudi-en/p40i-by-anker-noise-cancelling-wireless-earbuds-adaptive-noise-cancelling-to-environments-heavy-bass-60h-playtime-2-in-1-case-and-phone-stand-ipx5-wireless-charging-bluetooth-5-3-white/N70068108V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{1B0FC741-30F6-4176-9834-62E3D20C5C76}"/>
+    <hyperlink ref="D77" r:id="rId76" display="https://www.noon.com/saudi-en/xiaomi-redmi-buds-6-pro-black-36h-battery-life-triple-driver-hi-fi-sound-55-db-anc-20-anc-levels-3-transparency-modes-immersive-3d-audio-bluetooth-5-3-google-fast-pair-hi-res-audio-space-black/N70142766V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{53694F18-C32D-4C92-ACB2-033031EBA544}"/>
+    <hyperlink ref="D78" r:id="rId77" xr:uid="{B2E4A861-9B51-4078-9B66-2CF5D2EBF7DA}"/>
+    <hyperlink ref="D80" r:id="rId78" xr:uid="{1BD7D8A6-100D-40DA-8706-B1450011D96A}"/>
+    <hyperlink ref="D81" r:id="rId79" xr:uid="{A8BE9AD4-8034-4115-8F10-27A4F76C10F9}"/>
+    <hyperlink ref="D82" r:id="rId80" display="https://www.noon.com/saudi-en/xiaomi-redmi-buds-6-active-ai-wireless-earphones-noise-canceling-calls-bluetooth-5-4-low-latency-deep-bass-google-fast-pair-fast-charging-usb-type-c-up-to-30-hours-battery-life-with-charging-case-lightweight-white/N70100859V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{45513FD5-CFF0-48E5-9F36-C7FA491F41A9}"/>
+    <hyperlink ref="D83" r:id="rId81" xr:uid="{B35F51C9-E808-46EC-894E-CB19AD9BDD3F}"/>
+    <hyperlink ref="D84" r:id="rId82" display="https://www.noon.com/saudi-en/xiaomi-redmi-buds-6-active-ai-wireless-earphones-noise-canceling-calls-bluetooth-5-4-low-latency-deep-bass-google-fast-pair-fast-charging-usb-type-c-up-to-30-hours-battery-life-with-charging-case-lightweight-blue/N70099776V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{A1B88224-9E83-48A2-B964-27DC655710A1}"/>
+    <hyperlink ref="D79" r:id="rId83" display="https://www.noon.com/saudi-en/xiaomi-redmi-buds-6-pro-glacier-white-36h-battery-life-triple-driver-hi-fi-sound-55-db-anc-20-anc-levels-3-transparency-modes-immersive-3d-audio-bluetooth-5-3-google-fast-pair-hi-res-audio-glacier-white/N70142765V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23" xr:uid="{9741B2D7-15F4-4C38-8529-F343DB27C0F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId84"/>
 </worksheet>
 </file>
--- a/prodinfo/test/debug/source_debug.xlsx
+++ b/prodinfo/test/debug/source_debug.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__myProject\46.海外竞品数据采集\数据开发建设\_source\MEA\SA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA069DD6-3FE7-41B7-BF0F-2E6BC49E9886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A3A3E1-E425-454A-B2F3-718E3E54CE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="9690" windowWidth="29040" windowHeight="15720" xr2:uid="{F061D4D6-03A8-4A28-8640-0315D96DF44D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="247">
   <si>
     <t>沙特</t>
   </si>
@@ -54,9 +54,6 @@
     <t>product_link</t>
   </si>
   <si>
-    <t>Vmall</t>
-  </si>
-  <si>
     <t>NOON</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>HUAWEI Huawei FreeBuds 6i Black</t>
   </si>
   <si>
-    <t>HUAWEI Huawei FreeBuds 6i Purple</t>
-  </si>
-  <si>
     <t>HUAWEI Huawei FreeBuds SE 4 White</t>
   </si>
   <si>
@@ -327,87 +321,6 @@
     <t>XIAOMI Xiaomi Redmi Buds 6 Active Blue</t>
   </si>
   <si>
-    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008001</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008002</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008003</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008004</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016101</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016103</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016102</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012801</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012802</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012803</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012203</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012202</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012201</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015506</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015505</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015504</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010202</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010201</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010203</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-4-anc/?skuCode=89970116010015301</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-4-anc/?skuCode=89970116010015302</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-3-buy/?skuCode=89970116010010901</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-3-buy/?skuCode=89970116010010902</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006901</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006902</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006903</t>
-  </si>
-  <si>
-    <t>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006904</t>
-  </si>
-  <si>
     <t>https://www.noon.com/saudi-en/freeclip-wireless-earphones-bluetooth-earbuds-futuristic-aesthetic-design-feather-like-wearing-open-ear-listening-long-battery-life-ios-and-android-purple/N70028123V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -738,6 +651,216 @@
   <si>
     <t>https://www.noon.com/saudi-en/xiaomi-redmi-buds-6-pro-glacier-white-36h-battery-life-triple-driver-hi-fi-sound-55-db-anc-20-anc-levels-3-transparency-modes-immersive-3d-audio-bluetooth-5-3-google-fast-pair-hi-res-audio-glacier-white/N70142765V/p/?o=eaad914559e1fd9f&amp;shareId=61e31fa4-2d87-4845-aab7-23fe37837e23</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jarir</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip purple</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeClip2 white</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeBuds 6 white</t>
+  </si>
+  <si>
+    <t>HUAWEI Huawei FreeArc white</t>
+  </si>
+  <si>
+    <t>BOSE Bose Ultra Open Black</t>
+  </si>
+  <si>
+    <t>BOSE Bose Ultra Open white smoke</t>
+  </si>
+  <si>
+    <t>SONY Sony WF1000XM5 Black</t>
+  </si>
+  <si>
+    <t>SONY Sony WF1000XM5 Silver</t>
+  </si>
+  <si>
+    <t>SONY Sony WF-C700 Black</t>
+  </si>
+  <si>
+    <t>SONY Sony WF-C700 White</t>
+  </si>
+  <si>
+    <t>SONY Sony WF-C700 Green</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-628906.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-628907.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-634118.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-freeclip-headsets-649288.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-672751.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-672748.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-672750.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-657490.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-657491.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-657492.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-655420.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-655426.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-655428.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-666314.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-666313.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-666312.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-freebuds-6i-headsets-638068.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-freebuds-6i-headsets-638067.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-665613.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-665612.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-650173.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-650172.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-622213.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-headsets-622214.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/huawei-freebuds-se-2-headsets-640219.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/bose-headsets-632924.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/bose-headsets-648601.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/bose-headsets-632922.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/bose-headsets-662085.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/bose-headsets-662084.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-buds-3-pro-headsets-638950.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-headsets-638852.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-buds-3-headsets-638951.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-headsets-638851.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-headsets-667192.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-headsets-667191.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-buds-core-headsets-661303.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/samsung-galaxy-buds-core-headsets-661304.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/jbl-headsets-646630.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/jbl-headsets-616825.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/jbl-headsets-646644.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/jbl-headsets-646646.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-airpods-pro-2nd-gen-headsets-623511.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-airpods-pro-3-headsets-666611.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-airpods-4-headsets-642550.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/apple-airpods-4-headsets-642561.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/sony-headsets-621218.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/sony-headsets-621220.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/sony-headsets-617552.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/sony-headsets-617553.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/sony-headsets-617554.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/anker-headsets-641868.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/anker-headsets-610988.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/anker-headsets-657777.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/anker-headsets-658393.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/anker-headsets-626390.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/xiaomi-headsets-643148.html</t>
+  </si>
+  <si>
+    <t>https://www.jarir.com/sa-en/xiaomi-headsets-643240.html</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85:D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1168,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1182,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1196,13 +1319,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1210,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1224,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1238,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1252,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1266,13 +1389,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1280,13 +1403,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1294,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1308,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1322,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1336,13 +1459,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1350,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1364,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1378,13 +1501,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1392,13 +1515,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1406,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1420,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1434,13 +1557,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1448,13 +1571,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1462,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1476,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1490,13 +1613,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1504,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1518,13 +1641,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1532,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1546,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1560,13 +1683,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1574,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1588,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1602,13 +1725,13 @@
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1616,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1630,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1644,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1658,13 +1781,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1672,13 +1795,13 @@
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1686,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1700,13 +1823,13 @@
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1714,13 +1837,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1728,13 +1851,13 @@
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1742,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1756,13 +1879,13 @@
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1770,13 +1893,13 @@
         <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1784,13 +1907,13 @@
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1798,13 +1921,13 @@
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1812,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1826,13 +1949,13 @@
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1840,13 +1963,13 @@
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1854,13 +1977,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1868,13 +1991,13 @@
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1882,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1896,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1910,13 +2033,13 @@
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1924,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1938,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1952,13 +2075,13 @@
         <v>0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1966,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1980,13 +2103,13 @@
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1994,13 +2117,13 @@
         <v>0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2008,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2022,13 +2145,13 @@
         <v>0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2036,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2050,13 +2173,13 @@
         <v>0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2064,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2078,13 +2201,13 @@
         <v>0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2092,13 +2215,13 @@
         <v>0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2106,13 +2229,13 @@
         <v>0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2120,13 +2243,13 @@
         <v>0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2134,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2148,13 +2271,13 @@
         <v>0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2162,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2176,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2190,13 +2313,13 @@
         <v>0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2204,13 +2327,13 @@
         <v>0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2218,13 +2341,13 @@
         <v>0</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2232,13 +2355,13 @@
         <v>0</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2246,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2260,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2274,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2288,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2302,13 +2425,13 @@
         <v>0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2316,397 +2439,831 @@
         <v>0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D84" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" t="s">
+        <v>179</v>
+      </c>
+      <c r="D91" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" t="s">
+        <v>180</v>
+      </c>
+      <c r="D94" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>177</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>177</v>
+      </c>
+      <c r="C96" t="s">
+        <v>181</v>
+      </c>
+      <c r="D96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>177</v>
+      </c>
+      <c r="C97" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>177</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>177</v>
+      </c>
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="2" t="s">
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" t="s">
         <v>22</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="D101" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>177</v>
+      </c>
+      <c r="C102" t="s">
         <v>23</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="D102" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>177</v>
+      </c>
+      <c r="C103" t="s">
         <v>24</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="2" t="s">
+      <c r="D103" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>177</v>
+      </c>
+      <c r="C104" t="s">
         <v>25</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="2" t="s">
+      <c r="D104" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>177</v>
+      </c>
+      <c r="C105" t="s">
         <v>26</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" s="2" t="s">
+      <c r="D105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>177</v>
+      </c>
+      <c r="C106" t="s">
         <v>27</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="2" t="s">
+      <c r="D106" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>177</v>
+      </c>
+      <c r="C107" t="s">
         <v>28</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="2" t="s">
+      <c r="D107" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>177</v>
+      </c>
+      <c r="C108" t="s">
         <v>29</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="2" t="s">
+      <c r="D108" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>177</v>
+      </c>
+      <c r="C109" t="s">
         <v>30</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="2" t="s">
+      <c r="D109" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>177</v>
+      </c>
+      <c r="C110" t="s">
+        <v>182</v>
+      </c>
+      <c r="D110" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>177</v>
+      </c>
+      <c r="C111" t="s">
         <v>33</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>101</v>
+      <c r="D111" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>177</v>
+      </c>
+      <c r="C112" t="s">
+        <v>183</v>
+      </c>
+      <c r="D112" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C113" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>177</v>
+      </c>
+      <c r="C114" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>177</v>
+      </c>
+      <c r="C115" t="s">
+        <v>37</v>
+      </c>
+      <c r="D115" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>177</v>
+      </c>
+      <c r="C116" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>177</v>
+      </c>
+      <c r="C117" t="s">
+        <v>39</v>
+      </c>
+      <c r="D117" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>177</v>
+      </c>
+      <c r="C118" t="s">
+        <v>40</v>
+      </c>
+      <c r="D118" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>177</v>
+      </c>
+      <c r="C119" t="s">
+        <v>41</v>
+      </c>
+      <c r="D119" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>177</v>
+      </c>
+      <c r="C120" t="s">
+        <v>42</v>
+      </c>
+      <c r="D120" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>177</v>
+      </c>
+      <c r="C121" t="s">
+        <v>43</v>
+      </c>
+      <c r="D121" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>177</v>
+      </c>
+      <c r="C122" t="s">
+        <v>44</v>
+      </c>
+      <c r="D122" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>177</v>
+      </c>
+      <c r="C123" t="s">
+        <v>45</v>
+      </c>
+      <c r="D123" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>177</v>
+      </c>
+      <c r="C124" t="s">
+        <v>49</v>
+      </c>
+      <c r="D124" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>177</v>
+      </c>
+      <c r="C125" t="s">
+        <v>53</v>
+      </c>
+      <c r="D125" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>177</v>
+      </c>
+      <c r="C126" t="s">
+        <v>56</v>
+      </c>
+      <c r="D126" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>177</v>
+      </c>
+      <c r="C127" t="s">
+        <v>57</v>
+      </c>
+      <c r="D127" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>177</v>
+      </c>
+      <c r="C128" t="s">
+        <v>58</v>
+      </c>
+      <c r="D128" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>177</v>
+      </c>
+      <c r="C129" t="s">
+        <v>59</v>
+      </c>
+      <c r="D129" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>177</v>
+      </c>
+      <c r="C130" t="s">
+        <v>60</v>
+      </c>
+      <c r="D130" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>177</v>
+      </c>
+      <c r="C131" t="s">
+        <v>184</v>
+      </c>
+      <c r="D131" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>177</v>
+      </c>
+      <c r="C132" t="s">
+        <v>185</v>
+      </c>
+      <c r="D132" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>177</v>
+      </c>
+      <c r="C133" t="s">
+        <v>186</v>
+      </c>
+      <c r="D133" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>177</v>
+      </c>
+      <c r="C134" t="s">
+        <v>187</v>
+      </c>
+      <c r="D134" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>177</v>
+      </c>
+      <c r="C135" t="s">
+        <v>188</v>
+      </c>
+      <c r="D135" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>177</v>
+      </c>
+      <c r="C136" t="s">
+        <v>67</v>
+      </c>
+      <c r="D136" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>177</v>
+      </c>
+      <c r="C137" t="s">
+        <v>69</v>
+      </c>
+      <c r="D137" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>177</v>
+      </c>
+      <c r="C138" t="s">
+        <v>72</v>
+      </c>
+      <c r="D138" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>177</v>
+      </c>
+      <c r="C139" t="s">
+        <v>74</v>
+      </c>
+      <c r="D139" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>177</v>
+      </c>
+      <c r="C140" t="s">
+        <v>84</v>
+      </c>
+      <c r="D140" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>177</v>
+      </c>
+      <c r="C141" t="s">
+        <v>89</v>
+      </c>
+      <c r="D141" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>177</v>
+      </c>
+      <c r="C142" t="s">
+        <v>90</v>
+      </c>
+      <c r="D142" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D111" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D111">
-    <sortCondition ref="B2:B111"/>
+  <autoFilter ref="A1:D84" xr:uid="{4303BD37-097A-4B9A-9548-D5BDB9ADA57F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D84">
+    <sortCondition ref="B2:B84"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
